--- a/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_3_Resultats_202205.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_3_Resultats_202205.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB829C-E73D-4762-A8C6-AF9FD8D06FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F74783-D771-4457-B081-F2983E78E967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="409">
   <si>
     <t>type</t>
   </si>
@@ -1086,21 +1086,6 @@
     <t>Precise other:</t>
   </si>
   <si>
-    <t>Schistosoma haematobium</t>
-  </si>
-  <si>
-    <t>Schistosoma hématobium</t>
-  </si>
-  <si>
-    <t>Nombre d’œufs de Schistosoma haematobium dans 10 ml d'urine</t>
-  </si>
-  <si>
-    <t>SH egp 10 ml</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>sn_sch_sth_impact_3_Results_202205_v1</t>
   </si>
   <si>
@@ -1203,12 +1188,6 @@
     <t>(${r_autre_sa} + ${r_autre_sb})*24</t>
   </si>
   <si>
-    <t>r_sch_hae_sa</t>
-  </si>
-  <si>
-    <t>r_sch_hae_sb</t>
-  </si>
-  <si>
     <t>r_remarks</t>
   </si>
   <si>
@@ -1221,9 +1200,6 @@
     <t>read_only</t>
   </si>
   <si>
-    <t>r_code_id</t>
-  </si>
-  <si>
     <t>6. Code unique de l’enfant: Veuillez entrer le code tel que généré par le formulaire 2.</t>
   </si>
   <si>
@@ -1234,6 +1210,81 @@
   </si>
   <si>
     <t>Entrez le code de l'enfant exactement tel qu'il a été généré dans le formulaire 2. Exemple: 123-001D</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Strip test results</t>
+  </si>
+  <si>
+    <t>Résultats tests à la bandelettes</t>
+  </si>
+  <si>
+    <t>Seulement les échantillons d’urine trace hémolysée, +, ++, +++ sont conservés pour la filtration de l’urine</t>
+  </si>
+  <si>
+    <t>Résultats Kato Katz</t>
+  </si>
+  <si>
+    <t>Kato Katz results</t>
+  </si>
+  <si>
+    <t>Résultats filtrations</t>
+  </si>
+  <si>
+    <t>Filtration results</t>
+  </si>
+  <si>
+    <t>r_urine_vol</t>
+  </si>
+  <si>
+    <t>r_sh_egp</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium - Number of eggs in the urine sample</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium - Nombre d’œufs dans l’échantillon d’urine</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium - Volume of urine collected (ml)</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium - Volume d’urine collectée (en ml )</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium - Nombre d’œufs dans 10 ml d’urine</t>
+  </si>
+  <si>
+    <t>r_note1</t>
+  </si>
+  <si>
+    <t>r_note2</t>
+  </si>
+  <si>
+    <t>r_barcodeid</t>
+  </si>
+  <si>
+    <t>Formule utilisée: (nombre d’œufs lame A + nombre d’œufs lame B) x24</t>
+  </si>
+  <si>
+    <t>r_note3</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>r_sh_egr_10ml</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>(${r_sh_egp}*10) div ${r_urine_vol}</t>
+  </si>
+  <si>
+    <t>4 div 2</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1804,6 +1855,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2088,13 +2166,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2162,7 +2240,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="31.2">
@@ -2170,7 +2248,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>283</v>
@@ -2207,7 +2285,7 @@
         <v>289</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>17</v>
@@ -2236,7 +2314,7 @@
         <v>290</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>19</v>
@@ -2257,7 +2335,7 @@
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="36" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1">
@@ -2265,7 +2343,7 @@
         <v>291</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>281</v>
@@ -2286,7 +2364,7 @@
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="36" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1" ht="31.2">
@@ -2294,7 +2372,7 @@
         <v>292</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C6" s="73" t="s">
         <v>280</v>
@@ -2315,7 +2393,7 @@
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="36" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="13" customFormat="1" ht="31.2">
@@ -2323,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C7" s="73" t="s">
         <v>298</v>
@@ -2332,18 +2410,18 @@
         <v>299</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="25" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2372,17 +2450,17 @@
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1">
       <c r="A9" s="71" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="25" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="7"/>
@@ -2391,284 +2469,288 @@
       <c r="J9" s="25"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="36"/>
     </row>
-    <row r="10" spans="1:16" s="13" customFormat="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="73"/>
+    <row r="10" spans="1:16" s="13" customFormat="1" ht="31.2">
+      <c r="A10" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>301</v>
+      </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>387</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="18"/>
       <c r="J10" s="25"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="36"/>
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1">
-      <c r="A11" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="A11" s="71"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="36"/>
     </row>
     <row r="12" spans="1:16" s="13" customFormat="1">
-      <c r="A12" s="72" t="s">
-        <v>22</v>
+      <c r="A12" s="71" t="s">
+        <v>384</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="17" t="s">
-        <v>15</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="62.4">
+    <row r="13" spans="1:16" s="13" customFormat="1">
       <c r="A13" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
-        <v>361</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="17" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="36"/>
-      <c r="P13" s="13" t="s">
+    </row>
+    <row r="14" spans="1:16" s="13" customFormat="1">
+      <c r="A14" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="13" customFormat="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="31.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="62.4">
+      <c r="A15" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="B15" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="M15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="36"/>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="31.2">
-      <c r="A16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="17" t="s">
+      <c r="P15" s="13" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="16" spans="1:16" s="13" customFormat="1">
+      <c r="A16" s="72"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:16" s="13" customFormat="1" ht="62.4">
+    <row r="17" spans="1:16" s="13" customFormat="1" ht="31.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="M17" s="63" t="s">
+      <c r="B17" s="78" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="36"/>
-      <c r="P17" s="13" t="s">
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" ht="31.2">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="13" customFormat="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="46"/>
       <c r="N18" s="7"/>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:16" s="13" customFormat="1" ht="31.2">
+    <row r="19" spans="1:16" s="13" customFormat="1" ht="62.4">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="54"/>
+      <c r="B19" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>402</v>
+      </c>
       <c r="G19" s="67"/>
       <c r="H19" s="58"/>
       <c r="I19" s="68"/>
       <c r="J19" s="69"/>
       <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="L19" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="M19" s="63" t="s">
         <v>15</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="36"/>
-    </row>
-    <row r="20" spans="1:16" s="13" customFormat="1" ht="31.2">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>28</v>
-      </c>
+      <c r="P19" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="13" customFormat="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="51"/>
-      <c r="E20" s="53" t="s">
-        <v>325</v>
-      </c>
+      <c r="E20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="67"/>
       <c r="H20" s="58"/>
@@ -2676,25 +2758,23 @@
       <c r="J20" s="69"/>
       <c r="K20" s="67"/>
       <c r="L20" s="67"/>
-      <c r="M20" s="63" t="s">
-        <v>15</v>
-      </c>
+      <c r="M20" s="46"/>
       <c r="N20" s="7"/>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:16" s="13" customFormat="1" ht="62.4">
-      <c r="A21" s="55" t="s">
+    <row r="21" spans="1:16" s="13" customFormat="1" ht="31.2">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57" t="s">
-        <v>326</v>
+        <v>361</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="53" t="s">
+        <v>324</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="67"/>
@@ -2702,24 +2782,27 @@
       <c r="I21" s="68"/>
       <c r="J21" s="69"/>
       <c r="K21" s="67"/>
-      <c r="L21" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L21" s="67"/>
       <c r="M21" s="63" t="s">
         <v>15</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="13" customFormat="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+    </row>
+    <row r="22" spans="1:16" s="13" customFormat="1" ht="31.2">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F22" s="54"/>
       <c r="G22" s="67"/>
       <c r="H22" s="58"/>
@@ -2727,51 +2810,52 @@
       <c r="J22" s="69"/>
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
-      <c r="M22" s="46"/>
+      <c r="M22" s="63" t="s">
+        <v>15</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="36"/>
     </row>
-    <row r="23" spans="1:16" s="13" customFormat="1">
+    <row r="23" spans="1:16" s="13" customFormat="1" ht="62.4">
       <c r="A23" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="F23" s="54"/>
+      <c r="B23" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>402</v>
+      </c>
       <c r="G23" s="67"/>
       <c r="H23" s="58"/>
       <c r="I23" s="68"/>
       <c r="J23" s="69"/>
       <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
+      <c r="L23" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="M23" s="63" t="s">
         <v>15</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="36"/>
+      <c r="P23" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:16" s="13" customFormat="1">
-      <c r="A24" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="53" t="s">
-        <v>329</v>
-      </c>
+      <c r="A24" s="55"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="54"/>
       <c r="G24" s="67"/>
       <c r="H24" s="58"/>
@@ -2779,25 +2863,23 @@
       <c r="J24" s="69"/>
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
-      <c r="M24" s="63" t="s">
-        <v>15</v>
-      </c>
+      <c r="M24" s="46"/>
       <c r="N24" s="7"/>
       <c r="O24" s="36"/>
     </row>
-    <row r="25" spans="1:16" s="13" customFormat="1" ht="62.4">
+    <row r="25" spans="1:16" s="13" customFormat="1">
       <c r="A25" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>331</v>
+        <v>365</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="53" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="67"/>
@@ -2805,24 +2887,27 @@
       <c r="I25" s="68"/>
       <c r="J25" s="69"/>
       <c r="K25" s="67"/>
-      <c r="L25" s="7" t="s">
-        <v>373</v>
-      </c>
+      <c r="L25" s="67"/>
       <c r="M25" s="63" t="s">
         <v>15</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="36"/>
-      <c r="P25" s="13" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="26" spans="1:16" s="13" customFormat="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="50"/>
+      <c r="A26" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="D26" s="50"/>
-      <c r="E26" s="54"/>
+      <c r="E26" s="53" t="s">
+        <v>329</v>
+      </c>
       <c r="F26" s="54"/>
       <c r="G26" s="67"/>
       <c r="H26" s="58"/>
@@ -2830,90 +2915,83 @@
       <c r="J26" s="69"/>
       <c r="K26" s="67"/>
       <c r="L26" s="67"/>
-      <c r="M26" s="46"/>
+      <c r="M26" s="63" t="s">
+        <v>15</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="36"/>
     </row>
-    <row r="27" spans="1:16" s="13" customFormat="1">
-      <c r="A27" s="58" t="s">
-        <v>20</v>
+    <row r="27" spans="1:16" s="13" customFormat="1" ht="62.4">
+      <c r="A27" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>374</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>340</v>
+        <v>367</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>331</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="F27" s="54"/>
+        <v>330</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>402</v>
+      </c>
       <c r="G27" s="67"/>
       <c r="H27" s="58"/>
       <c r="I27" s="68"/>
       <c r="J27" s="69"/>
-      <c r="K27" s="79" t="s">
-        <v>346</v>
-      </c>
-      <c r="L27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="M27" s="63" t="s">
         <v>15</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="36"/>
+      <c r="P27" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:16" s="13" customFormat="1">
-      <c r="A28" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>341</v>
-      </c>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="50"/>
-      <c r="E28" s="53" t="s">
-        <v>333</v>
-      </c>
+      <c r="E28" s="54"/>
       <c r="F28" s="54"/>
       <c r="G28" s="67"/>
       <c r="H28" s="58"/>
       <c r="I28" s="68"/>
       <c r="J28" s="69"/>
-      <c r="K28" s="79" t="s">
-        <v>376</v>
-      </c>
+      <c r="K28" s="67"/>
       <c r="L28" s="67"/>
-      <c r="M28" s="63" t="s">
-        <v>15</v>
-      </c>
+      <c r="M28" s="46"/>
       <c r="N28" s="7"/>
       <c r="O28" s="36"/>
     </row>
     <row r="29" spans="1:16" s="13" customFormat="1">
-      <c r="A29" s="55" t="s">
-        <v>22</v>
+      <c r="A29" s="58" t="s">
+        <v>20</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="53" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="67"/>
       <c r="H29" s="58"/>
       <c r="I29" s="68"/>
       <c r="J29" s="69"/>
-      <c r="K29" s="79" t="s">
-        <v>376</v>
-      </c>
+      <c r="K29" s="79"/>
       <c r="L29" s="67"/>
       <c r="M29" s="63" t="s">
         <v>15</v>
@@ -2922,18 +3000,18 @@
       <c r="O29" s="36"/>
     </row>
     <row r="30" spans="1:16" s="13" customFormat="1">
-      <c r="A30" s="55" t="s">
-        <v>22</v>
+      <c r="A30" s="60" t="s">
+        <v>21</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="53" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="67"/>
@@ -2941,7 +3019,7 @@
       <c r="I30" s="68"/>
       <c r="J30" s="69"/>
       <c r="K30" s="79" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L30" s="67"/>
       <c r="M30" s="63" t="s">
@@ -2950,19 +3028,19 @@
       <c r="N30" s="7"/>
       <c r="O30" s="36"/>
     </row>
-    <row r="31" spans="1:16" s="13" customFormat="1" ht="62.4">
+    <row r="31" spans="1:16" s="13" customFormat="1">
       <c r="A31" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="53" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="67"/>
@@ -2970,78 +3048,86 @@
       <c r="I31" s="68"/>
       <c r="J31" s="69"/>
       <c r="K31" s="79" t="s">
-        <v>376</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>380</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="L31" s="67"/>
       <c r="M31" s="63" t="s">
         <v>15</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="36"/>
-      <c r="P31" s="13" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="32" spans="1:16" s="13" customFormat="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
+      <c r="A32" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>337</v>
+      </c>
       <c r="D32" s="50"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="53" t="s">
+        <v>335</v>
+      </c>
       <c r="F32" s="54"/>
       <c r="G32" s="67"/>
       <c r="H32" s="58"/>
       <c r="I32" s="68"/>
       <c r="J32" s="69"/>
-      <c r="K32" s="67"/>
+      <c r="K32" s="79" t="s">
+        <v>371</v>
+      </c>
       <c r="L32" s="67"/>
-      <c r="M32" s="46"/>
+      <c r="M32" s="63" t="s">
+        <v>15</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="36"/>
     </row>
-    <row r="33" spans="1:15" s="13" customFormat="1">
-      <c r="A33" s="58" t="s">
+    <row r="33" spans="1:16" s="13" customFormat="1" ht="62.4">
+      <c r="A33" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>381</v>
+      <c r="B33" s="60" t="s">
+        <v>374</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="F33" s="54"/>
+        <v>336</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>402</v>
+      </c>
       <c r="G33" s="67"/>
       <c r="H33" s="58"/>
       <c r="I33" s="68"/>
       <c r="J33" s="69"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
+      <c r="K33" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>375</v>
+      </c>
       <c r="M33" s="63" t="s">
         <v>15</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="36"/>
-    </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" ht="31.2">
-      <c r="A34" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>382</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>345</v>
-      </c>
+      <c r="P33" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="13" customFormat="1">
+      <c r="A34" s="45"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="50"/>
-      <c r="E34" s="53" t="s">
-        <v>344</v>
-      </c>
+      <c r="E34" s="53"/>
       <c r="F34" s="54"/>
       <c r="G34" s="67"/>
       <c r="H34" s="58"/>
@@ -3049,18 +3135,24 @@
       <c r="J34" s="69"/>
       <c r="K34" s="67"/>
       <c r="L34" s="67"/>
-      <c r="M34" s="63" t="s">
-        <v>15</v>
-      </c>
+      <c r="M34" s="46"/>
       <c r="N34" s="7"/>
       <c r="O34" s="36"/>
     </row>
-    <row r="35" spans="1:15" s="13" customFormat="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
+    <row r="35" spans="1:16" s="13" customFormat="1">
+      <c r="A35" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>391</v>
+      </c>
       <c r="D35" s="50"/>
-      <c r="E35" s="53"/>
+      <c r="E35" s="53" t="s">
+        <v>390</v>
+      </c>
       <c r="F35" s="54"/>
       <c r="G35" s="67"/>
       <c r="H35" s="58"/>
@@ -3072,82 +3164,208 @@
       <c r="N35" s="7"/>
       <c r="O35" s="36"/>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:16" s="13" customFormat="1" ht="31.2">
+      <c r="A36" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="F36" s="54"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="36"/>
+    </row>
+    <row r="37" spans="1:16" s="13" customFormat="1" ht="31.2">
+      <c r="A37" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="F37" s="54"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="36"/>
+    </row>
+    <row r="38" spans="1:16" s="13" customFormat="1">
+      <c r="A38" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="61"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="M38" s="63"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="36"/>
+    </row>
+    <row r="39" spans="1:16" s="13" customFormat="1" ht="31.2">
+      <c r="A39" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="F39" s="54"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="M39" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="13" customFormat="1">
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="88"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="C36" s="24" t="s">
+      <c r="B41" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E41" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="8" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C37" s="24" t="s">
+      <c r="B42" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="23" t="s">
+      <c r="E42" s="31"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="C38" s="24" t="s">
+      <c r="B43" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9153,10 +9371,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="37" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>

--- a/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_3_Resultats_202205.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_3_Resultats_202205.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F74783-D771-4457-B081-F2983E78E967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A8F2DE-F5E5-4EA9-8C01-6B8DF2F63F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="406">
   <si>
     <t>type</t>
   </si>
@@ -1038,9 +1038,6 @@
     <t>10.b. Ankylostome nombre d’œufs lame B</t>
   </si>
   <si>
-    <t>10.c. Ankylostome nombre d’œufs par gramme de selles A</t>
-  </si>
-  <si>
     <t>Hookworm - number of eggs per gram of stool</t>
   </si>
   <si>
@@ -1086,12 +1083,6 @@
     <t>Precise other:</t>
   </si>
   <si>
-    <t>sn_sch_sth_impact_3_Results_202205_v1</t>
-  </si>
-  <si>
-    <t>(Mai 2022) - 3. SCH/STH - Resultats v1</t>
-  </si>
-  <si>
     <t>r_recorder</t>
   </si>
   <si>
@@ -1128,9 +1119,6 @@
     <t>r_sch_man_gram</t>
   </si>
   <si>
-    <t>(${r_sch_man_sa} + ${r_sch_man_sb})*24</t>
-  </si>
-  <si>
     <t>r_ascaris_lumb_sa</t>
   </si>
   <si>
@@ -1140,9 +1128,6 @@
     <t>r_ascaris_lumb_gram</t>
   </si>
   <si>
-    <t>(${r_ascaris_lumb_sa} + ${r_ascaris_lumb_sb})*24</t>
-  </si>
-  <si>
     <t>r_hookworm_sa</t>
   </si>
   <si>
@@ -1152,9 +1137,6 @@
     <t>r_hookworm_gram</t>
   </si>
   <si>
-    <t>(${r_hookworm_sa} + ${r_hookworm_sb})*24</t>
-  </si>
-  <si>
     <t>r_trichuris_sa</t>
   </si>
   <si>
@@ -1164,9 +1146,6 @@
     <t>r_trichuris_gram</t>
   </si>
   <si>
-    <t>(${r_trichuris_sa} + ${r_trichuris_sb})*24</t>
-  </si>
-  <si>
     <t>r_autre</t>
   </si>
   <si>
@@ -1185,9 +1164,6 @@
     <t>r_autre_gram</t>
   </si>
   <si>
-    <t>(${r_autre_sa} + ${r_autre_sb})*24</t>
-  </si>
-  <si>
     <t>r_remarks</t>
   </si>
   <si>
@@ -1203,15 +1179,6 @@
     <t>6. Code unique de l’enfant: Veuillez entrer le code tel que généré par le formulaire 2.</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{3}[A-Z]{1}$')</t>
-  </si>
-  <si>
-    <t>Entrez le code tel que généré par le formulaire 2</t>
-  </si>
-  <si>
-    <t>Entrez le code de l'enfant exactement tel qu'il a été généré dans le formulaire 2. Exemple: 123-001D</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -1266,25 +1233,49 @@
     <t>r_barcodeid</t>
   </si>
   <si>
-    <t>Formule utilisée: (nombre d’œufs lame A + nombre d’œufs lame B) x24</t>
-  </si>
-  <si>
     <t>r_note3</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
     <t>r_sh_egr_10ml</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>(${r_sh_egp}*10) div ${r_urine_vol}</t>
   </si>
   <si>
-    <t>4 div 2</t>
+    <t>(${r_sch_man_sa} + ${r_sch_man_sb})*12</t>
+  </si>
+  <si>
+    <t>(${r_ascaris_lumb_sa} + ${r_ascaris_lumb_sb})*12</t>
+  </si>
+  <si>
+    <t>(${r_hookworm_sa} + ${r_hookworm_sb})*12</t>
+  </si>
+  <si>
+    <t>10.c. Ankylostome nombre d’œufs par gramme de selles</t>
+  </si>
+  <si>
+    <t>(${r_trichuris_sa} + ${r_trichuris_sb})*12</t>
+  </si>
+  <si>
+    <t>(${r_autre_sa} + ${r_autre_sb})*12</t>
+  </si>
+  <si>
+    <t>Formule utilisée: (nombre d’œufs lame A + nombre d’œufs lame B) x12</t>
+  </si>
+  <si>
+    <t>Formule utilisée: (Nombre d’œufs dans l’échantillon d’urine x 10) / Volume d'urine collectée</t>
+  </si>
+  <si>
+    <t>(Mai 2022) - 3. SCH/STH - Resultats v3</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_3_Results_202205_v3</t>
+  </si>
+  <si>
+    <t>Le code tel que généré par le formulaire 2</t>
+  </si>
+  <si>
+    <t>Le code de l'enfant exactement tel qu'il a été généré dans le formulaire 2.</t>
   </si>
 </sst>
 </file>
@@ -2169,10 +2160,10 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2187,7 +2178,7 @@
     <col min="8" max="8" width="16.8984375" style="15" customWidth="1"/>
     <col min="9" max="10" width="29.5" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" customWidth="1"/>
+    <col min="12" max="12" width="30.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.69921875" customWidth="1"/>
     <col min="14" max="14" width="13.8984375" customWidth="1"/>
     <col min="15" max="15" width="36.59765625" customWidth="1"/>
@@ -2240,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="31.2">
@@ -2248,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>283</v>
@@ -2285,7 +2276,7 @@
         <v>289</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>17</v>
@@ -2314,7 +2305,7 @@
         <v>290</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>19</v>
@@ -2335,7 +2326,7 @@
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="36" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1">
@@ -2343,7 +2334,7 @@
         <v>291</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>281</v>
@@ -2364,7 +2355,7 @@
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="36" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1" ht="31.2">
@@ -2372,7 +2363,7 @@
         <v>292</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C6" s="73" t="s">
         <v>280</v>
@@ -2393,7 +2384,7 @@
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="13" customFormat="1" ht="31.2">
@@ -2401,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C7" s="73" t="s">
         <v>298</v>
@@ -2410,18 +2401,16 @@
         <v>299</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>381</v>
-      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="18"/>
       <c r="J7" s="25" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2450,17 +2439,17 @@
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1">
       <c r="A9" s="71" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="25" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="7"/>
@@ -2478,7 +2467,7 @@
         <v>302</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C10" s="73" t="s">
         <v>301</v>
@@ -2488,7 +2477,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2521,17 +2510,17 @@
     </row>
     <row r="12" spans="1:16" s="13" customFormat="1">
       <c r="A12" s="71" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="25" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="7"/>
@@ -2549,7 +2538,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C13" s="74" t="s">
         <v>23</v>
@@ -2578,7 +2567,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C14" s="75" t="s">
         <v>24</v>
@@ -2602,12 +2591,12 @@
       <c r="N14" s="7"/>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="62.4">
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="31.2">
       <c r="A15" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C15" s="73" t="s">
         <v>319</v>
@@ -2617,7 +2606,7 @@
         <v>318</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -2625,7 +2614,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M15" s="17" t="s">
         <v>15</v>
@@ -2658,7 +2647,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>25</v>
@@ -2687,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>26</v>
@@ -2711,12 +2700,12 @@
       <c r="N18" s="7"/>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:16" s="13" customFormat="1" ht="62.4">
+    <row r="19" spans="1:16" s="13" customFormat="1" ht="31.2">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C19" s="48" t="s">
         <v>320</v>
@@ -2726,7 +2715,7 @@
         <v>323</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="58"/>
@@ -2734,7 +2723,7 @@
       <c r="J19" s="69"/>
       <c r="K19" s="67"/>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M19" s="63" t="s">
         <v>15</v>
@@ -2767,7 +2756,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C21" s="50" t="s">
         <v>27</v>
@@ -2794,7 +2783,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>28</v>
@@ -2816,22 +2805,22 @@
       <c r="N22" s="7"/>
       <c r="O22" s="36"/>
     </row>
-    <row r="23" spans="1:16" s="13" customFormat="1" ht="62.4">
+    <row r="23" spans="1:16" s="13" customFormat="1" ht="31.2">
       <c r="A23" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="57" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G23" s="67"/>
       <c r="H23" s="58"/>
@@ -2839,7 +2828,7 @@
       <c r="J23" s="69"/>
       <c r="K23" s="67"/>
       <c r="L23" s="7" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="M23" s="63" t="s">
         <v>15</v>
@@ -2872,14 +2861,14 @@
         <v>22</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C25" s="50" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="67"/>
@@ -2899,14 +2888,14 @@
         <v>22</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C26" s="61" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="67"/>
@@ -2921,22 +2910,22 @@
       <c r="N26" s="7"/>
       <c r="O26" s="36"/>
     </row>
-    <row r="27" spans="1:16" s="13" customFormat="1" ht="62.4">
+    <row r="27" spans="1:16" s="13" customFormat="1" ht="31.2">
       <c r="A27" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F27" s="54" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G27" s="67"/>
       <c r="H27" s="58"/>
@@ -2944,7 +2933,7 @@
       <c r="J27" s="69"/>
       <c r="K27" s="67"/>
       <c r="L27" s="7" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="M27" s="63" t="s">
         <v>15</v>
@@ -2977,14 +2966,14 @@
         <v>20</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="67"/>
@@ -3004,14 +2993,14 @@
         <v>21</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="67"/>
@@ -3019,7 +3008,7 @@
       <c r="I30" s="68"/>
       <c r="J30" s="69"/>
       <c r="K30" s="79" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L30" s="67"/>
       <c r="M30" s="63" t="s">
@@ -3033,14 +3022,14 @@
         <v>22</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="67"/>
@@ -3048,7 +3037,7 @@
       <c r="I31" s="68"/>
       <c r="J31" s="69"/>
       <c r="K31" s="79" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L31" s="67"/>
       <c r="M31" s="63" t="s">
@@ -3062,14 +3051,14 @@
         <v>22</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="67"/>
@@ -3077,7 +3066,7 @@
       <c r="I32" s="68"/>
       <c r="J32" s="69"/>
       <c r="K32" s="79" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L32" s="67"/>
       <c r="M32" s="63" t="s">
@@ -3086,32 +3075,32 @@
       <c r="N32" s="7"/>
       <c r="O32" s="36"/>
     </row>
-    <row r="33" spans="1:16" s="13" customFormat="1" ht="62.4">
+    <row r="33" spans="1:16" s="13" customFormat="1" ht="31.2">
       <c r="A33" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="58"/>
       <c r="I33" s="68"/>
       <c r="J33" s="69"/>
       <c r="K33" s="79" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="M33" s="63" t="s">
         <v>15</v>
@@ -3141,17 +3130,17 @@
     </row>
     <row r="35" spans="1:16" s="13" customFormat="1">
       <c r="A35" s="59" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="53" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="67"/>
@@ -3169,14 +3158,14 @@
         <v>22</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="53" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="67"/>
@@ -3196,14 +3185,14 @@
         <v>22</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="53" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="67"/>
@@ -3219,12 +3208,8 @@
       <c r="O37" s="36"/>
     </row>
     <row r="38" spans="1:16" s="13" customFormat="1">
-      <c r="A38" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>406</v>
-      </c>
+      <c r="A38" s="58"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="61"/>
       <c r="D38" s="50"/>
       <c r="E38" s="53"/>
@@ -3234,9 +3219,7 @@
       <c r="I38" s="68"/>
       <c r="J38" s="69"/>
       <c r="K38" s="67"/>
-      <c r="L38" s="67" t="s">
-        <v>408</v>
-      </c>
+      <c r="L38" s="67"/>
       <c r="M38" s="63"/>
       <c r="N38" s="7"/>
       <c r="O38" s="36"/>
@@ -3246,23 +3229,25 @@
         <v>22</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="F39" s="54"/>
+        <v>387</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>401</v>
+      </c>
       <c r="G39" s="67"/>
       <c r="H39" s="58"/>
       <c r="I39" s="68"/>
       <c r="J39" s="69"/>
       <c r="K39" s="67"/>
       <c r="L39" s="67" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="M39" s="63" t="s">
         <v>15</v>
@@ -3295,7 +3280,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>31</v>
@@ -3322,7 +3307,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>18</v>
@@ -3347,7 +3332,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>18</v>
@@ -9349,7 +9334,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -9371,10 +9356,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="37" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
